--- a/DbLayouts/L7-介接外部系統/CustomerAmlRating.xlsx
+++ b/DbLayouts/L7-介接外部系統/CustomerAmlRating.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0251E213-822C-44D2-A67E-3CF8E56DB489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -138,21 +139,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>findCompanyIdEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompanyId =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>custIdFirst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CustId = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>AmlRating</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -201,14 +187,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>客戶AML評級資料檔(eLoan)</t>
+    <t>客戶AML評級資料檔</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -494,9 +480,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,6 +573,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -622,6 +625,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -797,7 +817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -821,10 +841,10 @@
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -931,7 +951,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>29</v>
@@ -947,10 +967,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>29</v>
@@ -960,7 +980,7 @@
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -968,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>29</v>
@@ -981,7 +1001,7 @@
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -989,10 +1009,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>29</v>
@@ -1002,7 +1022,7 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -1010,10 +1030,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>29</v>
@@ -1023,7 +1043,7 @@
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -1127,12 +1147,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1154,21 +1174,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
